--- a/assets/docs/Manuscript_Writing_Checklist.xlsx
+++ b/assets/docs/Manuscript_Writing_Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jean/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jean/Dropbox (HMS)/Github/JEFworks.github.io/assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF4838-0A14-2141-9A99-558438DA92A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90FF6EC-277A-914C-B1AA-A9F43F85D9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13220" yWindow="460" windowWidth="25180" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Manuscript title:</t>
   </si>
@@ -127,12 +127,6 @@
     <t>Schedule meeting to discuss comments with supervisor</t>
   </si>
   <si>
-    <t>Construct an initial draft of responses and share with supervisor in Google Docs</t>
-  </si>
-  <si>
-    <t>Copy reviewer comments to a shared Google Doc, and seperate based upon each query.</t>
-  </si>
-  <si>
     <t>Notify all co-authors that reviews are back</t>
   </si>
   <si>
@@ -154,10 +148,19 @@
     <t>Archive submission bundle for repository submission</t>
   </si>
   <si>
-    <t>Share editable draft of manuscript with supervisor via Dropbox</t>
-  </si>
-  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Create a new folder on OneDrive to organize materials related to this manuscript</t>
+  </si>
+  <si>
+    <t>Share editable draft of manuscript with your supervisor via OneDrive</t>
+  </si>
+  <si>
+    <t>Copy reviewer comments to a shared OneDrive Word Document, and seperate based upon each query.</t>
+  </si>
+  <si>
+    <t>Construct an initial draft of responses and share with supervisor via OneDrive</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -274,6 +277,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -590,10 +603,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -648,19 +661,20 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -669,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -678,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -687,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -696,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -705,34 +719,34 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -741,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -750,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -759,26 +773,26 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -787,41 +801,42 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -829,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -837,16 +852,15 @@
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -855,7 +869,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -864,7 +878,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -873,25 +887,25 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="8"/>
-    </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -900,7 +914,7 @@
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -909,7 +923,7 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -918,26 +932,26 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-    </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
-      <c r="C44" s="5" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -946,33 +960,34 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B47" s="8"/>
-    </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B48" s="4"/>
-      <c r="C48" s="5" t="s">
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="C49" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="1" t="s">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -980,16 +995,32 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A9:A51">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",A9)))</formula>
+  <conditionalFormatting sqref="A10:A52">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",A10)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",A10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",A9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
